--- a/data/trans_orig/P11-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P11-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10372</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5636</v>
+        <v>5508</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18348</v>
+        <v>17676</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01775647547428639</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009648718236309561</v>
+        <v>0.009429609942088914</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0314100936910403</v>
+        <v>0.03026036338390485</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -765,19 +765,19 @@
         <v>20837</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12707</v>
+        <v>13896</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31270</v>
+        <v>31949</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02259120412794411</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01377717161607984</v>
+        <v>0.0150666303200227</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03390366658819888</v>
+        <v>0.03463886618753639</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -786,19 +786,19 @@
         <v>31209</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21942</v>
+        <v>21930</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44758</v>
+        <v>45943</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02071651914447259</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01456511392808674</v>
+        <v>0.01455744429915369</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0297102193812198</v>
+        <v>0.03049736569035046</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>32079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23204</v>
+        <v>22434</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44726</v>
+        <v>44031</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05491636616168358</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03972285509546185</v>
+        <v>0.03840428770527667</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07656771310411201</v>
+        <v>0.07537717479426431</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -836,19 +836,19 @@
         <v>56124</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43390</v>
+        <v>43504</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73579</v>
+        <v>72855</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06084997639299547</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04704367955268476</v>
+        <v>0.04716743294342736</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07977540640158323</v>
+        <v>0.07899018336237713</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>88</v>
@@ -857,19 +857,19 @@
         <v>88203</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73202</v>
+        <v>71094</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>107425</v>
+        <v>106745</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05854919577110932</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04859176592204634</v>
+        <v>0.04719264597338434</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07130863029017327</v>
+        <v>0.07085752565238473</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>53410</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40893</v>
+        <v>40940</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68544</v>
+        <v>69516</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09143258855569206</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07000570373574294</v>
+        <v>0.07008525419774125</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1173423851852324</v>
+        <v>0.1190051202602224</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>102</v>
@@ -907,19 +907,19 @@
         <v>105989</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>88248</v>
+        <v>88570</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>127587</v>
+        <v>129009</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1149135327625629</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09567963448536253</v>
+        <v>0.09602781561984519</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1383301974455557</v>
+        <v>0.1398728864934392</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>156</v>
@@ -928,19 +928,19 @@
         <v>159398</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>137267</v>
+        <v>137873</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>184940</v>
+        <v>185802</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.10580870462106</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09111806047414567</v>
+        <v>0.09152040397693183</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1227637497170927</v>
+        <v>0.1233358874037881</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>69950</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56097</v>
+        <v>55676</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>85948</v>
+        <v>87603</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1197478913219363</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09603344426277584</v>
+        <v>0.0953131332636282</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1471361444906345</v>
+        <v>0.149969689882866</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>151</v>
@@ -978,19 +978,19 @@
         <v>157566</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>136268</v>
+        <v>133700</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>182023</v>
+        <v>179696</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1708341766731016</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1477431646917827</v>
+        <v>0.1449583989195002</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1973507447266876</v>
+        <v>0.1948280818078082</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>221</v>
@@ -999,19 +999,19 @@
         <v>227516</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>200546</v>
+        <v>199811</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>255926</v>
+        <v>254165</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1510252693134889</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1331229988521713</v>
+        <v>0.13263474488722</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.169883943228483</v>
+        <v>0.1687152960611846</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>418331</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>398116</v>
+        <v>394753</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>441641</v>
+        <v>439294</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7161466784864017</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6815411181673915</v>
+        <v>0.6757839588170911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7560528402545968</v>
+        <v>0.7520337678930291</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>557</v>
@@ -1049,19 +1049,19 @@
         <v>581818</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>551337</v>
+        <v>552996</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>610634</v>
+        <v>612103</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6308111100433959</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5977630657046883</v>
+        <v>0.599562017587257</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6620541970333792</v>
+        <v>0.6636466171495268</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>963</v>
@@ -1070,19 +1070,19 @@
         <v>1000149</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>962509</v>
+        <v>965341</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1041547</v>
+        <v>1036346</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6639003111498692</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6389152031155607</v>
+        <v>0.6407948688902808</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6913804180925966</v>
+        <v>0.6879282679089797</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>5565</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1839</v>
+        <v>1873</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13178</v>
+        <v>12865</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005163278402982529</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001705787868505289</v>
+        <v>0.001737997679016908</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01222538825025937</v>
+        <v>0.01193528111062952</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>12019</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6353</v>
+        <v>6546</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21223</v>
+        <v>21943</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01136470601078037</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006007321894401634</v>
+        <v>0.006189495426245853</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0200679991127827</v>
+        <v>0.02074919754933395</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1216,19 +1216,19 @@
         <v>17584</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10019</v>
+        <v>10354</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27157</v>
+        <v>28862</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008234434618353772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004691815352370428</v>
+        <v>0.004848552354071302</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01271726279734446</v>
+        <v>0.01351571933583208</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>22002</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13771</v>
+        <v>14246</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33070</v>
+        <v>33151</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02041158141120873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01277586170100893</v>
+        <v>0.01321669896637998</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03068000027004638</v>
+        <v>0.03075552991925963</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -1266,19 +1266,19 @@
         <v>24702</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15422</v>
+        <v>16660</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37449</v>
+        <v>35576</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02335839315283935</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01458312278581233</v>
+        <v>0.01575390625031915</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03541158579476018</v>
+        <v>0.03364077534405378</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>45</v>
@@ -1287,19 +1287,19 @@
         <v>46704</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>34683</v>
+        <v>35117</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>60893</v>
+        <v>61971</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02187094202431304</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01624172602927229</v>
+        <v>0.01644489502251938</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02851539686289171</v>
+        <v>0.0290201683675025</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>46728</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33977</v>
+        <v>34644</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61081</v>
+        <v>62808</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04335153397869874</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03152140437459015</v>
+        <v>0.0321407288524914</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05666657072954229</v>
+        <v>0.0582692459115777</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>91</v>
@@ -1337,19 +1337,19 @@
         <v>93894</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>77046</v>
+        <v>76771</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>113196</v>
+        <v>115206</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08878550611776828</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07285424261766639</v>
+        <v>0.07259388709117079</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1070370888494607</v>
+        <v>0.1089380178354939</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>138</v>
@@ -1358,19 +1358,19 @@
         <v>140622</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>119620</v>
+        <v>121001</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>164257</v>
+        <v>165671</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06585197012802223</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05601663526485538</v>
+        <v>0.05666368893774977</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0769199255634337</v>
+        <v>0.07758197396160388</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>123267</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>103016</v>
+        <v>103666</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>145855</v>
+        <v>145368</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.114359277467505</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09557154528195583</v>
+        <v>0.09617463257228309</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1353146819379095</v>
+        <v>0.1348625802087216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>160</v>
@@ -1408,19 +1408,19 @@
         <v>161836</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>139751</v>
+        <v>140882</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>185840</v>
+        <v>185907</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.153030948557433</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1321471986329596</v>
+        <v>0.1332169936314911</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1757292960116295</v>
+        <v>0.1757919982507024</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>285</v>
@@ -1429,19 +1429,19 @@
         <v>285103</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>256377</v>
+        <v>255552</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>318193</v>
+        <v>315016</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1335107939469176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1200587222315871</v>
+        <v>0.1196721013697129</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1490061576906839</v>
+        <v>0.1475184839027141</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>880331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>853141</v>
+        <v>852834</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>903300</v>
+        <v>903056</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.816714328739605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7914884757630667</v>
+        <v>0.7912043028314431</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8380233598445106</v>
+        <v>0.8377968285610971</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>742</v>
@@ -1479,19 +1479,19 @@
         <v>765087</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>736061</v>
+        <v>734523</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>794241</v>
+        <v>792522</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.723460446161179</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.696013657225357</v>
+        <v>0.6945593034620648</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7510285223692217</v>
+        <v>0.7494032149596714</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1598</v>
@@ -1500,19 +1500,19 @@
         <v>1645418</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1607984</v>
+        <v>1605154</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1684303</v>
+        <v>1681585</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7705318592823934</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7530016425374576</v>
+        <v>0.7516764021100357</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7887409545747825</v>
+        <v>0.7874681052512486</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>8214</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3679</v>
+        <v>3803</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16019</v>
+        <v>16867</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007323626305341267</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003279884563718197</v>
+        <v>0.003390449747517821</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01428247418283149</v>
+        <v>0.01503810787934942</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1625,19 +1625,19 @@
         <v>9691</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4566</v>
+        <v>4401</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18096</v>
+        <v>17789</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009750140429825202</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004593382286556555</v>
+        <v>0.004428005790328975</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01820616803814881</v>
+        <v>0.01789777643391774</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1646,19 +1646,19 @@
         <v>17905</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10521</v>
+        <v>10402</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27632</v>
+        <v>28020</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008463673511442312</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004973189935879367</v>
+        <v>0.004916814072995079</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01306158853341054</v>
+        <v>0.01324476667765915</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>18196</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10706</v>
+        <v>10353</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27127</v>
+        <v>29400</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01622359197868092</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009545138080365887</v>
+        <v>0.009230455969516948</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02418599142670366</v>
+        <v>0.02621282362065666</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1696,19 +1696,19 @@
         <v>29988</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20516</v>
+        <v>20952</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41821</v>
+        <v>44590</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03017123792807279</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02064149142701739</v>
+        <v>0.02107926629656824</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04207641819982075</v>
+        <v>0.0448621927164687</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -1717,19 +1717,19 @@
         <v>48185</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34987</v>
+        <v>36166</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62609</v>
+        <v>63625</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02277660341011964</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01653830343833106</v>
+        <v>0.01709556485190119</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02959509519956103</v>
+        <v>0.03007511635077528</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>27726</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19054</v>
+        <v>19123</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39984</v>
+        <v>39300</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02472032041563885</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01698788582955976</v>
+        <v>0.01704983955109037</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03564950933142671</v>
+        <v>0.03503920727273337</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>44</v>
@@ -1767,19 +1767,19 @@
         <v>47871</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>35432</v>
+        <v>36098</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63156</v>
+        <v>63816</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04816331857112566</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03564807178278122</v>
+        <v>0.03631798770084654</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06354093405193115</v>
+        <v>0.0642054745586251</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>72</v>
@@ -1788,19 +1788,19 @@
         <v>75598</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>59746</v>
+        <v>60024</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>93985</v>
+        <v>93717</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03573452564120237</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02824149154138275</v>
+        <v>0.02837277962401319</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04442601906944753</v>
+        <v>0.04429945824704051</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>104139</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>86082</v>
+        <v>87230</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123141</v>
+        <v>122435</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09284899693643336</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07674949964936056</v>
+        <v>0.07777333768507454</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.109791243890506</v>
+        <v>0.1091616227972858</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>177</v>
@@ -1838,19 +1838,19 @@
         <v>178164</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>155274</v>
+        <v>151372</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>203183</v>
+        <v>201075</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1792498357702212</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1562202430208891</v>
+        <v>0.1522953014815669</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2044222105875479</v>
+        <v>0.2023012797823057</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>284</v>
@@ -1859,19 +1859,19 @@
         <v>282302</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>248543</v>
+        <v>253710</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>314059</v>
+        <v>314748</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1334426345020896</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1174848918621976</v>
+        <v>0.1199269642771342</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1484536795569761</v>
+        <v>0.1487792430450959</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>963319</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>939069</v>
+        <v>941625</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>985924</v>
+        <v>985329</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8588834643639056</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8372629869750707</v>
+        <v>0.8395419591666939</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8790379485555098</v>
+        <v>0.8785080499304344</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>723</v>
@@ -1909,19 +1909,19 @@
         <v>728226</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>699359</v>
+        <v>700063</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>755197</v>
+        <v>755427</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7326654673007551</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7036230559458262</v>
+        <v>0.7043311703946196</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7598015523840126</v>
+        <v>0.7600331212462141</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1665</v>
@@ -1930,19 +1930,19 @@
         <v>1691544</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1651999</v>
+        <v>1654210</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1727636</v>
+        <v>1725888</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7995825629351461</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7808896274361332</v>
+        <v>0.7819350344065835</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8166431926038419</v>
+        <v>0.8158167085830867</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>3153</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9321</v>
+        <v>8233</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007050518354400212</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002185888293834023</v>
+        <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02084334213678327</v>
+        <v>0.01841012557700475</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2055,19 +2055,19 @@
         <v>7368</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2984</v>
+        <v>3253</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15513</v>
+        <v>16228</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02159706136066131</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008747902449569652</v>
+        <v>0.009536618555889357</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0454720354546345</v>
+        <v>0.04756694803956481</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2076,19 +2076,19 @@
         <v>10521</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5114</v>
+        <v>5417</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19031</v>
+        <v>20401</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01334546678209959</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006486942881639679</v>
+        <v>0.006870662396094894</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02414036380683797</v>
+        <v>0.02587722836278962</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>10057</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4848</v>
+        <v>5313</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18340</v>
+        <v>18241</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02248932195907106</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0108398954233714</v>
+        <v>0.01188092787343494</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04101008477115548</v>
+        <v>0.04078936212029786</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -2126,19 +2126,19 @@
         <v>5721</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1994</v>
+        <v>1958</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12452</v>
+        <v>12519</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01676870008713139</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005845116707239547</v>
+        <v>0.005739212435618528</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03649869654544863</v>
+        <v>0.0366962744888634</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -2147,19 +2147,19 @@
         <v>15778</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8925</v>
+        <v>9000</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23838</v>
+        <v>25137</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02001374960880685</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01132054200640608</v>
+        <v>0.01141627231371669</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03023792517753948</v>
+        <v>0.03188572564969437</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>8628</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4016</v>
+        <v>4019</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15965</v>
+        <v>15746</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01929417990426274</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.008981371828312244</v>
+        <v>0.008986370467750492</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03569916770118911</v>
+        <v>0.03520991088269702</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2197,19 +2197,19 @@
         <v>3690</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9261</v>
+        <v>9486</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0108147562723619</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002738483463721725</v>
+        <v>0.002762849806474722</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0271457268150159</v>
+        <v>0.02780526399826237</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -2218,19 +2218,19 @@
         <v>12318</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6693</v>
+        <v>6273</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20802</v>
+        <v>20800</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01562474899985773</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008489913114750334</v>
+        <v>0.007957300510872676</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02638629218689112</v>
+        <v>0.02638392794970105</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>38426</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27119</v>
+        <v>26617</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52028</v>
+        <v>52181</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08592578153960902</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06064177040418343</v>
+        <v>0.0595199677351393</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1163413280510065</v>
+        <v>0.1166839124944099</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -2268,19 +2268,19 @@
         <v>45171</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33622</v>
+        <v>32825</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58355</v>
+        <v>57735</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1324037192299782</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09855122903790545</v>
+        <v>0.0962158230470139</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1710508839162704</v>
+        <v>0.1692311668375025</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>81</v>
@@ -2289,19 +2289,19 @@
         <v>83597</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>66908</v>
+        <v>67011</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>103228</v>
+        <v>102629</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1060388916208681</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08487022582676265</v>
+        <v>0.08500042534094035</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1309405381024551</v>
+        <v>0.1301812541292698</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>386935</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>370528</v>
+        <v>369471</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>399814</v>
+        <v>401957</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.865240198242657</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8285513523805491</v>
+        <v>0.8261875818210468</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8940393144617782</v>
+        <v>0.8988307251345644</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>278</v>
@@ -2339,19 +2339,19 @@
         <v>279209</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>265491</v>
+        <v>263458</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>294763</v>
+        <v>293336</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8184157630498672</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7782058304792783</v>
+        <v>0.7722461044098158</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8640066929933643</v>
+        <v>0.8598241467248963</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>656</v>
@@ -2360,19 +2360,19 @@
         <v>666144</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>646124</v>
+        <v>645946</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>687058</v>
+        <v>686328</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8449771429883678</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8195819149155006</v>
+        <v>0.8193562211738035</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8715053950386311</v>
+        <v>0.8705792795015574</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>27305</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>17861</v>
+        <v>17935</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>38649</v>
+        <v>38813</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008451355229978853</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005528401402128083</v>
+        <v>0.005551186347739151</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01196246137131374</v>
+        <v>0.0120133494090039</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>47</v>
@@ -2485,19 +2485,19 @@
         <v>49914</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>37559</v>
+        <v>37561</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>64641</v>
+        <v>65954</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01505724186318332</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01133020111136959</v>
+        <v>0.0113307162620646</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01949984166134318</v>
+        <v>0.01989594435076755</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>74</v>
@@ -2506,19 +2506,19 @@
         <v>77219</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>61605</v>
+        <v>62100</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>97194</v>
+        <v>98914</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01179675449745459</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009411320334149247</v>
+        <v>0.009487028942706454</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01484834608631657</v>
+        <v>0.01511100515539902</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>82334</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>66339</v>
+        <v>66528</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>104605</v>
+        <v>101099</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02548384340071157</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02053312527295778</v>
+        <v>0.02059151880609474</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03237723722147906</v>
+        <v>0.0312921008687576</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>113</v>
@@ -2556,19 +2556,19 @@
         <v>116536</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>97215</v>
+        <v>98058</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>140173</v>
+        <v>139340</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03515432894416672</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0293260338878791</v>
+        <v>0.0295802505057939</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04228481774780323</v>
+        <v>0.04203363009861921</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>196</v>
@@ -2577,19 +2577,19 @@
         <v>198869</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>170640</v>
+        <v>171691</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>227324</v>
+        <v>225971</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03038123826222709</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02606855753880631</v>
+        <v>0.02622918748411265</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03472824341574422</v>
+        <v>0.03452152141627496</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>136492</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>113980</v>
+        <v>117389</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>157513</v>
+        <v>163496</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04224687357420079</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03527885840479044</v>
+        <v>0.03633411499866684</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04875312364893242</v>
+        <v>0.05060487323327614</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>241</v>
@@ -2627,19 +2627,19 @@
         <v>251444</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>221897</v>
+        <v>222777</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>283367</v>
+        <v>283236</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07585096072731555</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06693775873239899</v>
+        <v>0.06720319787205868</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08548095020621153</v>
+        <v>0.08544164181442354</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>379</v>
@@ -2648,19 +2648,19 @@
         <v>387936</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>351872</v>
+        <v>353124</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>429916</v>
+        <v>429796</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0592648901991224</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05375541488489508</v>
+        <v>0.05394667589381007</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06567814703073703</v>
+        <v>0.06565978707459283</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>335782</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>302722</v>
+        <v>299387</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>367631</v>
+        <v>367024</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1039305166818274</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0936979278614761</v>
+        <v>0.09266568599958648</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1137884939632683</v>
+        <v>0.1136005078709087</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>533</v>
@@ -2698,19 +2698,19 @@
         <v>542736</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>501485</v>
+        <v>502458</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>584856</v>
+        <v>586791</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1637228604468162</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1512788858474269</v>
+        <v>0.151572572804364</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1764288355893406</v>
+        <v>0.1770125639355975</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>871</v>
@@ -2719,19 +2719,19 @@
         <v>878518</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>822819</v>
+        <v>824654</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>934730</v>
+        <v>935280</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1342109732107973</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1257019130729572</v>
+        <v>0.1259821692089181</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.142798523650831</v>
+        <v>0.1428824531086619</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>2648916</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2604048</v>
+        <v>2604869</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2687778</v>
+        <v>2689543</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8198874111132815</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8059999382998904</v>
+        <v>0.8062539456328054</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8319158064135054</v>
+        <v>0.8324621540448751</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2300</v>
@@ -2769,19 +2769,19 @@
         <v>2354339</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2302208</v>
+        <v>2302584</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2406734</v>
+        <v>2407189</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7102146080185182</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6944885569760201</v>
+        <v>0.6946020676485219</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.726019933971463</v>
+        <v>0.726157465310734</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4882</v>
@@ -2790,19 +2790,19 @@
         <v>5003255</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4932179</v>
+        <v>4929436</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5077482</v>
+        <v>5071465</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7643461438303987</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7534877741099357</v>
+        <v>0.7530687866845316</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7756857363594341</v>
+        <v>0.774766502161737</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>20783</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12992</v>
+        <v>12451</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33324</v>
+        <v>32152</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01995054025288335</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01247159223188734</v>
+        <v>0.01195244281804102</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03198904836405578</v>
+        <v>0.03086403104606142</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -3155,19 +3155,19 @@
         <v>56490</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43026</v>
+        <v>43692</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72484</v>
+        <v>73255</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05057325408659037</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03851915339341518</v>
+        <v>0.03911522347135878</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0648915615595925</v>
+        <v>0.06558236504441793</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -3176,19 +3176,19 @@
         <v>77273</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59896</v>
+        <v>61989</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94789</v>
+        <v>97303</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03579580154610947</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02774585322257239</v>
+        <v>0.0287154283771367</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04390971141596908</v>
+        <v>0.04507449778451109</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>47156</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33938</v>
+        <v>33589</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61934</v>
+        <v>63760</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04526681280839807</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03257843689056553</v>
+        <v>0.03224384172592692</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05945368086934312</v>
+        <v>0.06120608205959897</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -3226,19 +3226,19 @@
         <v>88780</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72682</v>
+        <v>71472</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>109423</v>
+        <v>107035</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07948126022854361</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06506931652499619</v>
+        <v>0.06398610197377019</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09796173901206072</v>
+        <v>0.09582357686518923</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>124</v>
@@ -3247,19 +3247,19 @@
         <v>135936</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>112853</v>
+        <v>113562</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>161135</v>
+        <v>160410</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06297056246035777</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05227778709951674</v>
+        <v>0.05260635125836644</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07464361422070727</v>
+        <v>0.07430790105906257</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>35202</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24715</v>
+        <v>24231</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48598</v>
+        <v>48252</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03379189813417063</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02372522902198042</v>
+        <v>0.02326095494188146</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04665147495559968</v>
+        <v>0.04631913866095854</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>79</v>
@@ -3297,19 +3297,19 @@
         <v>85398</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>69220</v>
+        <v>69621</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>105010</v>
+        <v>104597</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07645329729966806</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0619697169619094</v>
+        <v>0.06232852438648822</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09401075504798823</v>
+        <v>0.09364107777037689</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>110</v>
@@ -3318,19 +3318,19 @@
         <v>120600</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>99159</v>
+        <v>101145</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>143093</v>
+        <v>145661</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05586639553445851</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04593430458205834</v>
+        <v>0.04685430694013069</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06628610021236242</v>
+        <v>0.06747568011768269</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>108782</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>89424</v>
+        <v>90202</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>131251</v>
+        <v>129503</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1044252037961494</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08584272164225303</v>
+        <v>0.08658916266978575</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1259942581916095</v>
+        <v>0.1243155950185169</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -3368,19 +3368,19 @@
         <v>151992</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>130753</v>
+        <v>129303</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>177348</v>
+        <v>176050</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1360716105400357</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1170579139649996</v>
+        <v>0.1157591934764322</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1587721476082672</v>
+        <v>0.1576099067167193</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>245</v>
@@ -3389,19 +3389,19 @@
         <v>260774</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>229363</v>
+        <v>231870</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>291139</v>
+        <v>290308</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1208001595421238</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1062492078949956</v>
+        <v>0.1074109726907237</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1348663349899651</v>
+        <v>0.1344812348649342</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>829801</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>802926</v>
+        <v>800357</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>857743</v>
+        <v>854941</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7965655450083985</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7707668316953293</v>
+        <v>0.7683000494022216</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8233881415369817</v>
+        <v>0.820697762529165</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>671</v>
@@ -3439,19 +3439,19 @@
         <v>734337</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>705615</v>
+        <v>699383</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>767318</v>
+        <v>765020</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6574205778451623</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6317069156465732</v>
+        <v>0.6261270922006618</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6869462762244111</v>
+        <v>0.6848888883315388</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1454</v>
@@ -3460,19 +3460,19 @@
         <v>1564139</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1518891</v>
+        <v>1519184</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1605019</v>
+        <v>1608266</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7245670809169504</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7036066155655312</v>
+        <v>0.7037422106671749</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7435044783147946</v>
+        <v>0.7450083486735449</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>11224</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5249</v>
+        <v>4992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21837</v>
+        <v>21330</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01152000562460476</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005387872063476315</v>
+        <v>0.005123738509378253</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02241298629351167</v>
+        <v>0.02189301504341473</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -3585,19 +3585,19 @@
         <v>36580</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25958</v>
+        <v>25340</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49620</v>
+        <v>50688</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03342924682701539</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02372237053921103</v>
+        <v>0.02315711188493999</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0453459615565655</v>
+        <v>0.04632128216585707</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -3606,19 +3606,19 @@
         <v>47804</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36157</v>
+        <v>34799</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64725</v>
+        <v>64438</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02310989283287435</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01747908183909953</v>
+        <v>0.01682290675543599</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03128979680944063</v>
+        <v>0.03115094827543737</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>33960</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22486</v>
+        <v>23773</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47520</v>
+        <v>49458</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03485542226124171</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02307853578831188</v>
+        <v>0.02439964234691781</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04877274362719354</v>
+        <v>0.05076184815522376</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>65</v>
@@ -3656,19 +3656,19 @@
         <v>71270</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>57235</v>
+        <v>56421</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91847</v>
+        <v>91223</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0651306032649505</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05230449547618513</v>
+        <v>0.05156113167606336</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08393476926715251</v>
+        <v>0.08336518081868771</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>94</v>
@@ -3677,19 +3677,19 @@
         <v>105230</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>85375</v>
+        <v>86771</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>130248</v>
+        <v>129980</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0508708529099455</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04127237305032638</v>
+        <v>0.04194739493298235</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06296545704721479</v>
+        <v>0.06283585550678319</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>33334</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23034</v>
+        <v>23785</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47608</v>
+        <v>47129</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03421310163948791</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0236413265145063</v>
+        <v>0.02441191546659266</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0488635527932833</v>
+        <v>0.0483721334043696</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>78</v>
@@ -3727,19 +3727,19 @@
         <v>81448</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>64536</v>
+        <v>64927</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>102228</v>
+        <v>101525</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07443206203941617</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05897700114322037</v>
+        <v>0.05933443741004624</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09342162393995759</v>
+        <v>0.09277929967637064</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>110</v>
@@ -3748,19 +3748,19 @@
         <v>114782</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>95146</v>
+        <v>95416</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>137531</v>
+        <v>138065</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05548874557268547</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04599598197963339</v>
+        <v>0.04612648300954723</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06648612358280777</v>
+        <v>0.06674421872690559</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>104662</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86259</v>
+        <v>86358</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>127336</v>
+        <v>127657</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1074222638765459</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08853338313020934</v>
+        <v>0.08863508545352736</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.13069439025886</v>
+        <v>0.1310232449555878</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>162</v>
@@ -3798,19 +3798,19 @@
         <v>175572</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>153084</v>
+        <v>149616</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201908</v>
+        <v>201205</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1604479233074294</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1398969776650518</v>
+        <v>0.1367277420905629</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1845154002911389</v>
+        <v>0.1838731391053914</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>259</v>
@@ -3819,19 +3819,19 @@
         <v>280234</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>248862</v>
+        <v>252280</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>313424</v>
+        <v>314080</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.135472592332487</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1203065457794848</v>
+        <v>0.1219588326379281</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1515172357776611</v>
+        <v>0.1518346501297179</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>791125</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>765238</v>
+        <v>763017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>817421</v>
+        <v>814703</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8119892065981198</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7854193620801839</v>
+        <v>0.7831398687531821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8389784529379032</v>
+        <v>0.8361889137373829</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>681</v>
@@ -3869,19 +3869,19 @@
         <v>729391</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>693797</v>
+        <v>697068</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>760074</v>
+        <v>761288</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6665601645611885</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.634031523122466</v>
+        <v>0.6370209167280638</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6945995913587019</v>
+        <v>0.6957095151819546</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1435</v>
@@ -3890,19 +3890,19 @@
         <v>1520517</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1478102</v>
+        <v>1471131</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1558362</v>
+        <v>1560464</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7350579163520077</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7145535161785753</v>
+        <v>0.7111834594335351</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7533534688398363</v>
+        <v>0.754369373173167</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>13895</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7949</v>
+        <v>8005</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23027</v>
+        <v>22930</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01575760409971044</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009014142619029291</v>
+        <v>0.009078369948580684</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02611323152073819</v>
+        <v>0.02600350674231707</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -4015,19 +4015,19 @@
         <v>13835</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7564</v>
+        <v>6607</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22414</v>
+        <v>22598</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01579742499846083</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008636532085648605</v>
+        <v>0.007543608838590197</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02559286324800161</v>
+        <v>0.02580284912803263</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -4036,19 +4036,19 @@
         <v>27730</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19188</v>
+        <v>18943</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40200</v>
+        <v>41372</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01577744656550151</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01091731082801166</v>
+        <v>0.01077790454440303</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02287201763619022</v>
+        <v>0.02353928778942498</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>25717</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16717</v>
+        <v>17236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36603</v>
+        <v>37974</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.029164366706191</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0189576926714067</v>
+        <v>0.01954639904557652</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04150957267033852</v>
+        <v>0.04306472829169752</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -4086,19 +4086,19 @@
         <v>41995</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30151</v>
+        <v>30800</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58089</v>
+        <v>56564</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04795013162563558</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03442743320797437</v>
+        <v>0.03516815336697617</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06632721236498736</v>
+        <v>0.06458596463963848</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>62</v>
@@ -4107,19 +4107,19 @@
         <v>67712</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51622</v>
+        <v>52664</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>83724</v>
+        <v>86772</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0385251774731659</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02937063463340384</v>
+        <v>0.0299637323926396</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04763536092084368</v>
+        <v>0.04936983047567389</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>33677</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22969</v>
+        <v>22667</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47356</v>
+        <v>48064</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03819085039092043</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0260478797186843</v>
+        <v>0.02570524626629753</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05370364231814171</v>
+        <v>0.05450699384925095</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>48</v>
@@ -4157,19 +4157,19 @@
         <v>52561</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38986</v>
+        <v>39910</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>69771</v>
+        <v>69567</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06001547431260641</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04451488165690694</v>
+        <v>0.04556975356472089</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07966633040713859</v>
+        <v>0.07943332295369819</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>78</v>
@@ -4178,19 +4178,19 @@
         <v>86238</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>67536</v>
+        <v>69241</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>104996</v>
+        <v>106262</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04906590261622722</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03842506117400234</v>
+        <v>0.03939514076487238</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05973868978529603</v>
+        <v>0.06045865954901319</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>92663</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75163</v>
+        <v>74430</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>114844</v>
+        <v>112060</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1050837143044821</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08523879014436295</v>
+        <v>0.0844076320618293</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1302384909718781</v>
+        <v>0.1270819276940072</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>133</v>
@@ -4228,19 +4228,19 @@
         <v>141523</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>120810</v>
+        <v>122038</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>164563</v>
+        <v>165735</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.161594118780656</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1379425654685628</v>
+        <v>0.1393451252129696</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1879009672518984</v>
+        <v>0.1892390427308082</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>216</v>
@@ -4249,19 +4249,19 @@
         <v>234186</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>203403</v>
+        <v>206825</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>262365</v>
+        <v>265563</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1332424400702421</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.115728101766381</v>
+        <v>0.1176749845081661</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.149275211808322</v>
+        <v>0.1510949374879751</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>715846</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>690678</v>
+        <v>688510</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>740890</v>
+        <v>739758</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8118034644986961</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7832615579904522</v>
+        <v>0.7808034098194589</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8402045066582537</v>
+        <v>0.8389206329332863</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>590</v>
@@ -4299,19 +4299,19 @@
         <v>625881</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>598578</v>
+        <v>597455</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>651386</v>
+        <v>653981</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7146428502826412</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6834669995697328</v>
+        <v>0.6821856608781826</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7437644240929555</v>
+        <v>0.7467274666275059</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1265</v>
@@ -4320,19 +4320,19 @@
         <v>1341727</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1306154</v>
+        <v>1304125</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1378972</v>
+        <v>1378533</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7633890332748633</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7431495582567137</v>
+        <v>0.7419950206364528</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.784579968016879</v>
+        <v>0.7843297903089376</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>7356</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3143</v>
+        <v>3084</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15467</v>
+        <v>14541</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01488448587483776</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006358881120016095</v>
+        <v>0.006239191592126479</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03129536030354553</v>
+        <v>0.02942061115632913</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -4445,19 +4445,19 @@
         <v>6405</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2166</v>
+        <v>2318</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12541</v>
+        <v>13430</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01417649502120026</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004793153454988092</v>
+        <v>0.005129609942089391</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02775860941113038</v>
+        <v>0.02972461111037028</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -4466,19 +4466,19 @@
         <v>13761</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7417</v>
+        <v>7526</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22722</v>
+        <v>22952</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01454636671172307</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007839852849913467</v>
+        <v>0.007955617284878818</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02401865053402797</v>
+        <v>0.02426136626068636</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>12742</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5432</v>
+        <v>6193</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23959</v>
+        <v>23370</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02578127202499402</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01099178953646213</v>
+        <v>0.0125307306523839</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04847726533149581</v>
+        <v>0.04728668397260842</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>29</v>
@@ -4516,19 +4516,19 @@
         <v>32052</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>22516</v>
+        <v>21815</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>45046</v>
+        <v>45435</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.070943176940984</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04983631242173831</v>
+        <v>0.04828481523041649</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09970416433512201</v>
+        <v>0.1005651063844509</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>39</v>
@@ -4537,19 +4537,19 @@
         <v>44794</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>31555</v>
+        <v>32448</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>61018</v>
+        <v>60512</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0473494962702727</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03335561636446772</v>
+        <v>0.03429932547000752</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06449942577849803</v>
+        <v>0.06396390810571512</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>18364</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10493</v>
+        <v>11366</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27980</v>
+        <v>29272</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0371573761361467</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02123016892080121</v>
+        <v>0.02299674104235756</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05661329094532663</v>
+        <v>0.05922751014128789</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -4587,19 +4587,19 @@
         <v>23829</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15167</v>
+        <v>14754</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36231</v>
+        <v>35671</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0527432715205202</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03356935962543174</v>
+        <v>0.03265622576401585</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0801935147071679</v>
+        <v>0.07895313173121532</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>38</v>
@@ -4608,19 +4608,19 @@
         <v>42194</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30026</v>
+        <v>30132</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>56518</v>
+        <v>58179</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04460081961664084</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03173876143290616</v>
+        <v>0.03185065797428892</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05974186080913499</v>
+        <v>0.06149841159757401</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>37502</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27019</v>
+        <v>26832</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53960</v>
+        <v>52151</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07587929935627964</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05466863599490452</v>
+        <v>0.05429024732715889</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1091794431877445</v>
+        <v>0.1055195763488009</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -4658,19 +4658,19 @@
         <v>42467</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31546</v>
+        <v>31008</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58408</v>
+        <v>57098</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09399553611712581</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06982287357322936</v>
+        <v>0.06863147667492853</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1292784546467275</v>
+        <v>0.1263784285435563</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -4679,19 +4679,19 @@
         <v>79969</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>63919</v>
+        <v>64147</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>102056</v>
+        <v>101079</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08453117216070044</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06756608203466005</v>
+        <v>0.06780626324555325</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1078780558362783</v>
+        <v>0.1068452075537152</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>418265</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>398400</v>
+        <v>399326</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>433614</v>
+        <v>434727</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8462975666077419</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8061032609125526</v>
+        <v>0.8079780224008332</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8773552288929911</v>
+        <v>0.8796065652528153</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>317</v>
@@ -4729,19 +4729,19 @@
         <v>347046</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>325917</v>
+        <v>326274</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>364515</v>
+        <v>362862</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7681415204001697</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7213749777162418</v>
+        <v>0.7221647931919485</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8068055384204033</v>
+        <v>0.8031467322091282</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>701</v>
@@ -4750,19 +4750,19 @@
         <v>765311</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>738891</v>
+        <v>737627</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>790194</v>
+        <v>789447</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.808972145240663</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7810444614377017</v>
+        <v>0.7797082328293633</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8352745154174918</v>
+        <v>0.8344846201032694</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>53258</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>38663</v>
+        <v>38267</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>70158</v>
+        <v>68246</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01570089784694984</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01139816558758868</v>
+        <v>0.01128140517150121</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02068290321698239</v>
+        <v>0.02011941689815443</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>106</v>
@@ -4875,19 +4875,19 @@
         <v>113311</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>94239</v>
+        <v>92966</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>138434</v>
+        <v>137780</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03201905839155929</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0266297846434003</v>
+        <v>0.02627007025931391</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03911839313676047</v>
+        <v>0.03893346775116782</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>155</v>
@@ -4896,19 +4896,19 @@
         <v>166569</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>142356</v>
+        <v>140093</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>196314</v>
+        <v>193354</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02403279428711176</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02053930463706843</v>
+        <v>0.0202127742140956</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02832444757656778</v>
+        <v>0.02789727569095922</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>119574</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>97590</v>
+        <v>99025</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>143322</v>
+        <v>145068</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03525126851093623</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02877023068341824</v>
+        <v>0.02919315339569842</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04225219050789026</v>
+        <v>0.04276714382491638</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>213</v>
@@ -4946,19 +4946,19 @@
         <v>234097</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>204736</v>
+        <v>202808</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>265880</v>
+        <v>265804</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06615047863002525</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05785367312988485</v>
+        <v>0.05730901132081311</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07513170125013427</v>
+        <v>0.07511027768845289</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>319</v>
@@ -4967,19 +4967,19 @@
         <v>353671</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>315512</v>
+        <v>321027</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>395118</v>
+        <v>398427</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05102810917206693</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04552244860555506</v>
+        <v>0.04631810123256047</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05700814532390491</v>
+        <v>0.05748552705923502</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>120577</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>98062</v>
+        <v>99998</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>144138</v>
+        <v>144248</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0355467874077545</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02890941013587164</v>
+        <v>0.0294801970398181</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04249270548128162</v>
+        <v>0.04252526881138975</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>226</v>
@@ -5017,19 +5017,19 @@
         <v>243237</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>212195</v>
+        <v>216273</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>274327</v>
+        <v>274521</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06873325089658371</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05996160560147733</v>
+        <v>0.06111394155796598</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07751850609594847</v>
+        <v>0.07757340862530983</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>336</v>
@@ -5038,19 +5038,19 @@
         <v>363814</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>330270</v>
+        <v>326782</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>404467</v>
+        <v>403574</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05249147772675501</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04765174694536142</v>
+        <v>0.04714844316594571</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0583570111272638</v>
+        <v>0.05822816346180194</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>343608</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>308729</v>
+        <v>307605</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>380934</v>
+        <v>380342</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1012980482331335</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09101540932578736</v>
+        <v>0.09068405548615098</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1123019223461356</v>
+        <v>0.112127284486389</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>476</v>
@@ -5088,19 +5088,19 @@
         <v>511554</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>472572</v>
+        <v>470733</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>554455</v>
+        <v>551789</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1445536163791818</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.133538170020379</v>
+        <v>0.1330185338915237</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1566762178683592</v>
+        <v>0.1559229502341486</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>792</v>
@@ -5109,19 +5109,19 @@
         <v>855163</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>800023</v>
+        <v>803728</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>912002</v>
+        <v>912947</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1233839269244236</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1154283341097444</v>
+        <v>0.1159628307370312</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1315846753569818</v>
+        <v>0.1317210670431694</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>2755036</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2707760</v>
+        <v>2707618</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2799918</v>
+        <v>2800066</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.812202998001226</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.798265593862114</v>
+        <v>0.7982237747353959</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.825434435910482</v>
+        <v>0.825477960966464</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2259</v>
@@ -5159,19 +5159,19 @@
         <v>2436657</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2381105</v>
+        <v>2382247</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2495641</v>
+        <v>2495818</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6885435957026499</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6728459030052252</v>
+        <v>0.6731685724575789</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7052111755920104</v>
+        <v>0.7052611136796225</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4855</v>
@@ -5180,19 +5180,19 @@
         <v>5191693</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5115243</v>
+        <v>5117235</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5263269</v>
+        <v>5260267</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7490636918896427</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7380333400506006</v>
+        <v>0.7383207674449785</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7593907505057571</v>
+        <v>0.758957607863686</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>26630</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17332</v>
+        <v>16890</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38950</v>
+        <v>39857</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02375123927124838</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01545873716445674</v>
+        <v>0.01506414856632219</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03474019157923806</v>
+        <v>0.03554894631685573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -5545,19 +5545,19 @@
         <v>56708</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42836</v>
+        <v>42266</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75030</v>
+        <v>73965</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04550649580679879</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03437467555062364</v>
+        <v>0.03391750576194085</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06020965533767098</v>
+        <v>0.05935530835759877</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -5566,19 +5566,19 @@
         <v>83337</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65649</v>
+        <v>66277</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>102142</v>
+        <v>104392</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03520303173846712</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02773141255385669</v>
+        <v>0.0279966559032356</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04314646843525508</v>
+        <v>0.04409713867279332</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>38633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28625</v>
+        <v>27875</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53721</v>
+        <v>52990</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03445712821962007</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02553065049136429</v>
+        <v>0.02486240227074643</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04791418262908698</v>
+        <v>0.04726235812089933</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>89</v>
@@ -5616,19 +5616,19 @@
         <v>101269</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>82751</v>
+        <v>82198</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>123871</v>
+        <v>126725</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08126565143990375</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06640583628322475</v>
+        <v>0.06596185894792973</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0994038961073672</v>
+        <v>0.1016941612761378</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>127</v>
@@ -5637,19 +5637,19 @@
         <v>139901</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117562</v>
+        <v>117891</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>163104</v>
+        <v>163166</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05909675923200225</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.049660116522781</v>
+        <v>0.04979923472505408</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06889777986286406</v>
+        <v>0.06892404289955568</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>63308</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49861</v>
+        <v>48956</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>81222</v>
+        <v>80889</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05646484184266563</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04447181858666933</v>
+        <v>0.04366403277912169</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07244274841497686</v>
+        <v>0.07214593044338602</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>95</v>
@@ -5687,19 +5687,19 @@
         <v>108681</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>88748</v>
+        <v>89202</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>129259</v>
+        <v>131276</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08721375083225279</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07121806880847316</v>
+        <v>0.07158235766521383</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1037274921358656</v>
+        <v>0.1053454609272568</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>156</v>
@@ -5708,19 +5708,19 @@
         <v>171988</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>146028</v>
+        <v>147629</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>196787</v>
+        <v>199211</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0726508207929359</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06168472952168084</v>
+        <v>0.06236111114897183</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08312635708448723</v>
+        <v>0.08415019565572146</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>137256</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>115116</v>
+        <v>115015</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>159209</v>
+        <v>158615</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.12242068189474</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1026731993546901</v>
+        <v>0.102583638620138</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1420004024428344</v>
+        <v>0.1414704056986752</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>157</v>
@@ -5758,19 +5758,19 @@
         <v>169778</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>145391</v>
+        <v>147405</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>195566</v>
+        <v>196884</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1362428508869726</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.11667315351092</v>
+        <v>0.1182888022210728</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1569370137732347</v>
+        <v>0.1579946306935064</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>288</v>
@@ -5779,19 +5779,19 @@
         <v>307034</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>279372</v>
+        <v>274915</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>342553</v>
+        <v>339600</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1296965607375021</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1180114561992726</v>
+        <v>0.116128958424682</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.144700066736509</v>
+        <v>0.1434526550842453</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>855360</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>827572</v>
+        <v>825203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>884227</v>
+        <v>883080</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7629061087717259</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.73812162075065</v>
+        <v>0.7360090634816885</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.788652900426864</v>
+        <v>0.7876302760232919</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>785</v>
@@ -5829,19 +5829,19 @@
         <v>809708</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>775467</v>
+        <v>775827</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>845429</v>
+        <v>840895</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6497712510340721</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6222935879124777</v>
+        <v>0.6225827411309529</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6784362592307494</v>
+        <v>0.6747980859089635</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1590</v>
@@ -5850,19 +5850,19 @@
         <v>1665068</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1618955</v>
+        <v>1619843</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1711341</v>
+        <v>1712272</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7033528274990927</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6838739546703403</v>
+        <v>0.6842493893787954</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7228995241400662</v>
+        <v>0.723292836694302</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>7665</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3581</v>
+        <v>3544</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15113</v>
+        <v>14626</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008495774681539879</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003969838527574608</v>
+        <v>0.003928127364188619</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01675224710654057</v>
+        <v>0.01621265788190866</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -5975,19 +5975,19 @@
         <v>16785</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9339</v>
+        <v>9026</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26546</v>
+        <v>26434</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01676433938177787</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009327562523893617</v>
+        <v>0.009014903683560569</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02651343465905445</v>
+        <v>0.02640147271012841</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -5996,19 +5996,19 @@
         <v>24449</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14904</v>
+        <v>15772</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35567</v>
+        <v>36127</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01284522769703171</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007830379287114692</v>
+        <v>0.008286498185916084</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01868629320203992</v>
+        <v>0.01898055281838074</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>22813</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15189</v>
+        <v>15057</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34207</v>
+        <v>34201</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02528674260748722</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01683622281280102</v>
+        <v>0.01668946993614722</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03791641362692915</v>
+        <v>0.03791037327648363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -6046,19 +6046,19 @@
         <v>62848</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47839</v>
+        <v>48701</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>80945</v>
+        <v>81440</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06277087033626509</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04778010865960525</v>
+        <v>0.04864101530039253</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08084563697489028</v>
+        <v>0.08134075485590268</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>78</v>
@@ -6067,19 +6067,19 @@
         <v>85661</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>68620</v>
+        <v>68102</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>106700</v>
+        <v>105967</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04500424598244674</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03605122733389476</v>
+        <v>0.03577958110968077</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05605809674672923</v>
+        <v>0.05567296282898592</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>31655</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21453</v>
+        <v>22296</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45435</v>
+        <v>44858</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03508762468319229</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02377936368614651</v>
+        <v>0.02471404128933907</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05036194639870682</v>
+        <v>0.04972238510319084</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -6117,19 +6117,19 @@
         <v>46895</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34332</v>
+        <v>33906</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>63565</v>
+        <v>61942</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04683719073190649</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03429036392957232</v>
+        <v>0.03386467677856377</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0634869581778237</v>
+        <v>0.06186619386401776</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>73</v>
@@ -6138,19 +6138,19 @@
         <v>78549</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>62592</v>
+        <v>62550</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>101230</v>
+        <v>97433</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04126816354743187</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03288430696584574</v>
+        <v>0.0328623787094536</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05318382775684585</v>
+        <v>0.05118926425613325</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>90944</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73843</v>
+        <v>73150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110278</v>
+        <v>109705</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1008070919494082</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08185127329707842</v>
+        <v>0.08108246119629092</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1222376860206876</v>
+        <v>0.1216026939018759</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>136</v>
@@ -6188,19 +6188,19 @@
         <v>149613</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>128688</v>
+        <v>126921</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>173401</v>
+        <v>173353</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1494295993287544</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1285308760998163</v>
+        <v>0.1267652256969097</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1731891108953389</v>
+        <v>0.1731406478443117</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>225</v>
@@ -6209,19 +6209,19 @@
         <v>240557</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>211140</v>
+        <v>209354</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>272215</v>
+        <v>270891</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1263836362480558</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1109282904559567</v>
+        <v>0.1099903335291535</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1430158991341143</v>
+        <v>0.142320548042485</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>749086</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>726182</v>
+        <v>723161</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>770703</v>
+        <v>770083</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8303227660783724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.804933861211551</v>
+        <v>0.801585630905495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8542838883575172</v>
+        <v>0.8535968464750598</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>698</v>
@@ -6259,19 +6259,19 @@
         <v>725086</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>695295</v>
+        <v>696135</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>752635</v>
+        <v>755614</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7241980002212961</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6944432065800478</v>
+        <v>0.6952826744036182</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7517130749142741</v>
+        <v>0.7546886441296495</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1421</v>
@@ -6280,19 +6280,19 @@
         <v>1474172</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1440464</v>
+        <v>1437755</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1510893</v>
+        <v>1510052</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7744987265250338</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7567888517052797</v>
+        <v>0.7553659893157988</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7937909726047222</v>
+        <v>0.7933489596543267</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>6800</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3088</v>
+        <v>2907</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13593</v>
+        <v>13980</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008324672681769773</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003780607949119027</v>
+        <v>0.003559283365462345</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01664039685185649</v>
+        <v>0.01711451824402219</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -6405,19 +6405,19 @@
         <v>24168</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15161</v>
+        <v>14569</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37396</v>
+        <v>36593</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03146469415783378</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01973852573124257</v>
+        <v>0.01896711086088453</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04868665470110333</v>
+        <v>0.04764039045137091</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -6426,19 +6426,19 @@
         <v>30968</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21035</v>
+        <v>20349</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45086</v>
+        <v>43431</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01953887430860887</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01327159382104187</v>
+        <v>0.0128392334300121</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02844626480578658</v>
+        <v>0.02740247719422781</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>16237</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9664</v>
+        <v>9554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26667</v>
+        <v>26455</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01987776177046854</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01183147006216456</v>
+        <v>0.01169613740644711</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03264613780820851</v>
+        <v>0.03238731569490267</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -6476,19 +6476,19 @@
         <v>23163</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14576</v>
+        <v>14664</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34135</v>
+        <v>36321</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03015633455092422</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.018976215768546</v>
+        <v>0.01909154066014656</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04444084385021922</v>
+        <v>0.04728722673986403</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -6497,19 +6497,19 @@
         <v>39400</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27569</v>
+        <v>27487</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53022</v>
+        <v>53037</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02485900120948121</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01739399645851222</v>
+        <v>0.01734235274840931</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03345344362486954</v>
+        <v>0.03346298390936962</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>27258</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19047</v>
+        <v>17895</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38252</v>
+        <v>38245</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03337054637313579</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02331803101955537</v>
+        <v>0.02190799663279542</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04682869471188524</v>
+        <v>0.04682074230558305</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -6547,19 +6547,19 @@
         <v>31001</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21350</v>
+        <v>21238</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>43351</v>
+        <v>44645</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04035994241841378</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02779585905768542</v>
+        <v>0.02764978234564918</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05643892430066345</v>
+        <v>0.05812385603469384</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>56</v>
@@ -6568,19 +6568,19 @@
         <v>58259</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>43958</v>
+        <v>43649</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>73606</v>
+        <v>75869</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0367577729832172</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0277346324146959</v>
+        <v>0.02753991218791802</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04644078622708617</v>
+        <v>0.04786860088362291</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>72081</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56573</v>
+        <v>58886</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>91029</v>
+        <v>89815</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08824279144513426</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06925835313724783</v>
+        <v>0.07208959718554518</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1114402828396605</v>
+        <v>0.1099536174434696</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>100</v>
@@ -6618,19 +6618,19 @@
         <v>112634</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>93913</v>
+        <v>94327</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>134196</v>
+        <v>134854</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1466400160784722</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1222661824639253</v>
+        <v>0.1228057945525954</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1747110062926756</v>
+        <v>0.1755682530180173</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>171</v>
@@ -6639,19 +6639,19 @@
         <v>184715</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>159287</v>
+        <v>158647</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>213804</v>
+        <v>211137</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1165434674908964</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1004998527127958</v>
+        <v>0.1000961136685266</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1348970029277619</v>
+        <v>0.1332141380815959</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>694467</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>672603</v>
+        <v>673889</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>712331</v>
+        <v>713316</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8501842277294916</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8234178786133258</v>
+        <v>0.8249922300207799</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8720535669712917</v>
+        <v>0.8732597963384051</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>557</v>
@@ -6689,19 +6689,19 @@
         <v>577135</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>550860</v>
+        <v>551470</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>599691</v>
+        <v>601792</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.751379012794356</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7171708428082091</v>
+        <v>0.7179659877464954</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7807455824693295</v>
+        <v>0.7834804229514921</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1215</v>
@@ -6710,19 +6710,19 @@
         <v>1271602</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1235106</v>
+        <v>1238260</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1301974</v>
+        <v>1303645</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8023008840077963</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7792745058340746</v>
+        <v>0.7812644225682657</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8214638800687286</v>
+        <v>0.8225180218651812</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>3680</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>946</v>
+        <v>915</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9435</v>
+        <v>9079</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00732595523471057</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001883787118883873</v>
+        <v>0.001821765668679241</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01878112646342909</v>
+        <v>0.01807331127615215</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -6835,19 +6835,19 @@
         <v>10268</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4643</v>
+        <v>4717</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20139</v>
+        <v>18972</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02096813374015192</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009481390363962288</v>
+        <v>0.009633152168081686</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04112497973796238</v>
+        <v>0.03874292672290003</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -6856,19 +6856,19 @@
         <v>13948</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7468</v>
+        <v>7706</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25272</v>
+        <v>25449</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01405991367196273</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007527886814853268</v>
+        <v>0.007767612665068576</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02547444177254862</v>
+        <v>0.02565214367312976</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>14253</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8049</v>
+        <v>7925</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25576</v>
+        <v>26115</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0283709673232049</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01602121803069212</v>
+        <v>0.01577616191757432</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05090991052434077</v>
+        <v>0.05198368709776584</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>21</v>
@@ -6906,19 +6906,19 @@
         <v>24342</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15420</v>
+        <v>15722</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>36397</v>
+        <v>36994</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04970903444401786</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03148950249328265</v>
+        <v>0.0321060017034725</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07432566535114422</v>
+        <v>0.07554546675632837</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>33</v>
@@ -6927,19 +6927,19 @@
         <v>38595</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>27014</v>
+        <v>26964</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>53858</v>
+        <v>53438</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03890371743093431</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02722950120933949</v>
+        <v>0.0271800870815143</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0542884724959758</v>
+        <v>0.05386550843414101</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>13800</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6854</v>
+        <v>7282</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22861</v>
+        <v>23445</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02746915177025069</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01364261127478653</v>
+        <v>0.01449492318320101</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04550568752431021</v>
+        <v>0.04666937072082446</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -6977,19 +6977,19 @@
         <v>17904</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9921</v>
+        <v>10152</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29445</v>
+        <v>28688</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03656080132760477</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02025880919770243</v>
+        <v>0.02073197639097339</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06012887046136047</v>
+        <v>0.05858292523475444</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>27</v>
@@ -6998,19 +6998,19 @@
         <v>31703</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21542</v>
+        <v>21939</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>45427</v>
+        <v>45882</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03195690936855985</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02171408787599317</v>
+        <v>0.02211456909151546</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04578998960366696</v>
+        <v>0.04624875378140376</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>45437</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32853</v>
+        <v>32802</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>59988</v>
+        <v>59877</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09044481114546513</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06539509694302058</v>
+        <v>0.0652951351752778</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1194094071962359</v>
+        <v>0.1191900234497842</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -7048,19 +7048,19 @@
         <v>52433</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39595</v>
+        <v>39560</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68537</v>
+        <v>67437</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.107071800623013</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08085635215804922</v>
+        <v>0.08078378749430933</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1399583023875816</v>
+        <v>0.1377111868529285</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -7069,19 +7069,19 @@
         <v>97870</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>80137</v>
+        <v>79461</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>117953</v>
+        <v>120075</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09865211147024665</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0807778334706456</v>
+        <v>0.080096094175737</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1188962947201731</v>
+        <v>0.1210355304352118</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>425200</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>407478</v>
+        <v>406249</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>441687</v>
+        <v>442176</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8463891145263687</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8111111242699008</v>
+        <v>0.8086657148219745</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.879205575587002</v>
+        <v>0.8801806014775642</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>363</v>
@@ -7119,19 +7119,19 @@
         <v>384751</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>366199</v>
+        <v>364233</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>403112</v>
+        <v>401153</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7856902298652124</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7478065860563665</v>
+        <v>0.7437901449985886</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8231840984653103</v>
+        <v>0.8191842515180155</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>760</v>
@@ -7140,19 +7140,19 @@
         <v>809951</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>786212</v>
+        <v>783038</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>836174</v>
+        <v>835364</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8164273480582964</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7924981966942395</v>
+        <v>0.7892986215476224</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8428596140806925</v>
+        <v>0.8420427467775664</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>44774</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33852</v>
+        <v>32773</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>60779</v>
+        <v>59079</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.013395240399554</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01012749469002131</v>
+        <v>0.009804848441113114</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01818340142417433</v>
+        <v>0.01767490676585405</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>92</v>
@@ -7265,19 +7265,19 @@
         <v>107929</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>86909</v>
+        <v>85937</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>132726</v>
+        <v>129238</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03079128176593486</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0247944739926937</v>
+        <v>0.02451720384945004</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03786589027680233</v>
+        <v>0.03687066345666085</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>136</v>
@@ -7286,19 +7286,19 @@
         <v>152703</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>127487</v>
+        <v>129307</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>179169</v>
+        <v>181725</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02229980405235055</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0186173608123767</v>
+        <v>0.01888317713040353</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02616479316378115</v>
+        <v>0.02653794712444377</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>91935</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>73050</v>
+        <v>74423</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>112206</v>
+        <v>112954</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02750445551080564</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02185455394297208</v>
+        <v>0.02226515951580556</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03356875675016571</v>
+        <v>0.03379272015770014</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>186</v>
@@ -7336,19 +7336,19 @@
         <v>211622</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>180681</v>
+        <v>184375</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>242119</v>
+        <v>246190</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06037427129871555</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05154693982900269</v>
+        <v>0.05260088102806765</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06907488857611949</v>
+        <v>0.07023624064508277</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>275</v>
@@ -7357,19 +7357,19 @@
         <v>303557</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>270502</v>
+        <v>269850</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>338964</v>
+        <v>341907</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0443296262939005</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03950248568952977</v>
+        <v>0.03940726376971391</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0495002212740611</v>
+        <v>0.04993001841381531</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>136021</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>114045</v>
+        <v>113657</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>159765</v>
+        <v>163187</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04069349271369922</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03411895109978275</v>
+        <v>0.03400304940254849</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04779713435625074</v>
+        <v>0.0488209683894033</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>179</v>
@@ -7407,19 +7407,19 @@
         <v>204480</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>179087</v>
+        <v>176264</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>234057</v>
+        <v>234900</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05833662809194582</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05109228452044314</v>
+        <v>0.0502869472912488</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06677474757124556</v>
+        <v>0.06701543729173066</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>312</v>
@@ -7428,19 +7428,19 @@
         <v>340500</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>306199</v>
+        <v>302951</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>378849</v>
+        <v>380038</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04972453711637117</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04471536559129362</v>
+        <v>0.04424104510564318</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05532474073994122</v>
+        <v>0.05549842586633529</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>345718</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>310259</v>
+        <v>312506</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>378998</v>
+        <v>385764</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1034290617675421</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09282084835001535</v>
+        <v>0.09349291672441284</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1133853732388304</v>
+        <v>0.1154096071621265</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>441</v>
@@ -7478,19 +7478,19 @@
         <v>484458</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>439724</v>
+        <v>442841</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>527208</v>
+        <v>522838</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1382125136267228</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1254502786816259</v>
+        <v>0.1263394771847177</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.150408627403823</v>
+        <v>0.149161898687714</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>774</v>
@@ -7499,19 +7499,19 @@
         <v>830176</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>776980</v>
+        <v>776322</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>893855</v>
+        <v>887694</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1212337711620965</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1134653884159568</v>
+        <v>0.1133693260926573</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.130533050411053</v>
+        <v>0.1296333308193766</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>2724114</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2679487</v>
+        <v>2674055</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2769905</v>
+        <v>2764723</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8149777496083991</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8016267160691904</v>
+        <v>0.8000017418209906</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8286773650522268</v>
+        <v>0.8271270605703521</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2403</v>
@@ -7549,19 +7549,19 @@
         <v>2496680</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2441247</v>
+        <v>2437606</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2555318</v>
+        <v>2552823</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.712285305216681</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6964708066200908</v>
+        <v>0.6954319545482924</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7290144334050186</v>
+        <v>0.7283027250234262</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4986</v>
@@ -7570,19 +7570,19 @@
         <v>5220793</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5147178</v>
+        <v>5145047</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5295616</v>
+        <v>5289297</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7624122613752813</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7516620180286837</v>
+        <v>0.7513508706501807</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.773339053927846</v>
+        <v>0.7724162265163804</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>24778</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16477</v>
+        <v>17450</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34827</v>
+        <v>36521</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04978447226004838</v>
+        <v>0.04978447226004839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03310627644067499</v>
+        <v>0.03506049973652313</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06997624369347018</v>
+        <v>0.07338022174711742</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>102</v>
@@ -7935,19 +7935,19 @@
         <v>60942</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50051</v>
+        <v>49812</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74477</v>
+        <v>73843</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0977295833890946</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08026413307507883</v>
+        <v>0.07987992221331448</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1194348200639375</v>
+        <v>0.1184172719828833</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>132</v>
@@ -7956,19 +7956,19 @@
         <v>85720</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>71578</v>
+        <v>72044</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>101080</v>
+        <v>103248</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07644830249968457</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06383590894107831</v>
+        <v>0.0642514654301905</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09014681546526471</v>
+        <v>0.09208087139786157</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>59328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46447</v>
+        <v>45765</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76278</v>
+        <v>76002</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1192044897793188</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09332425417175243</v>
+        <v>0.09195222669766276</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1532611188725055</v>
+        <v>0.1527061365416935</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>139</v>
@@ -8006,19 +8006,19 @@
         <v>89517</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75811</v>
+        <v>75803</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>107991</v>
+        <v>105665</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1435537904498022</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1215730184893225</v>
+        <v>0.1215610827015062</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1731796243420417</v>
+        <v>0.1694483641933195</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>200</v>
@@ -8027,19 +8027,19 @@
         <v>148845</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>128451</v>
+        <v>129499</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>171397</v>
+        <v>172956</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1327459250631824</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1145574779094889</v>
+        <v>0.1154918281664925</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1528583822182656</v>
+        <v>0.1542482949014508</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>52566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40845</v>
+        <v>40817</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66075</v>
+        <v>68257</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1056168743396094</v>
+        <v>0.1056168743396095</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08206748589410921</v>
+        <v>0.08201184170619347</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1327601479783368</v>
+        <v>0.1371448474561963</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>96</v>
@@ -8077,19 +8077,19 @@
         <v>60038</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>48965</v>
+        <v>48021</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>72365</v>
+        <v>73201</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09627914290018907</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07852199614904788</v>
+        <v>0.07700928383755455</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1160479283582358</v>
+        <v>0.1173885773916377</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>155</v>
@@ -8098,19 +8098,19 @@
         <v>112603</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>97115</v>
+        <v>95457</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>132834</v>
+        <v>130719</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1004238592425356</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08661072346587223</v>
+        <v>0.0851319190594447</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1184660311917275</v>
+        <v>0.1165800268473869</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>60780</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46403</v>
+        <v>47315</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78116</v>
+        <v>78402</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1221219300613587</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09323499565020839</v>
+        <v>0.09506660127320646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1569539587335024</v>
+        <v>0.1575294211484859</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>142</v>
@@ -8148,19 +8148,19 @@
         <v>94217</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79716</v>
+        <v>79889</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>110376</v>
+        <v>110832</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.15109099559439</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1278356460237573</v>
+        <v>0.1281127806038846</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1770031677213965</v>
+        <v>0.1777355822700279</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>201</v>
@@ -8169,19 +8169,19 @@
         <v>154997</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>133401</v>
+        <v>134362</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>176567</v>
+        <v>177356</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1382325663156918</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1189721552979275</v>
+        <v>0.1198295133895138</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1574695546172879</v>
+        <v>0.1581731165337297</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>300249</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>277252</v>
+        <v>274792</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>323395</v>
+        <v>322919</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6032722335596646</v>
+        <v>0.6032722335596649</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5570659740941685</v>
+        <v>0.5521235715414724</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6497782105956256</v>
+        <v>0.6488229919330897</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>382</v>
@@ -8219,19 +8219,19 @@
         <v>318865</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>298022</v>
+        <v>295733</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>342982</v>
+        <v>341852</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.511346487666524</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4779216324330512</v>
+        <v>0.474250018156876</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5500216124109484</v>
+        <v>0.5482093086073674</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>627</v>
@@ -8240,19 +8240,19 @@
         <v>619114</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>585260</v>
+        <v>587911</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>649644</v>
+        <v>651753</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5521493468789055</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5219573183274516</v>
+        <v>0.5243215117165781</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5793767863104089</v>
+        <v>0.5812577191495198</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>29372</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20678</v>
+        <v>20503</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41244</v>
+        <v>41550</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03059105181591522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02153608646631057</v>
+        <v>0.02135440699039406</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04295674768188322</v>
+        <v>0.04327461729674066</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -8365,19 +8365,19 @@
         <v>53707</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44217</v>
+        <v>43412</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64812</v>
+        <v>65245</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04815732735738049</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0396476114374341</v>
+        <v>0.03892595137526211</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05811515000334208</v>
+        <v>0.05850261956319592</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>143</v>
@@ -8386,19 +8386,19 @@
         <v>83079</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68637</v>
+        <v>69271</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98007</v>
+        <v>99131</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04003060168621624</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03307226527687813</v>
+        <v>0.03337735588978313</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04722377496553156</v>
+        <v>0.04776503366694056</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>56006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43900</v>
+        <v>42645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>71912</v>
+        <v>70823</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05833091339070943</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04572307219572484</v>
+        <v>0.04441588033333673</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07489802570237622</v>
+        <v>0.07376319619328023</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>174</v>
@@ -8436,19 +8436,19 @@
         <v>101998</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88120</v>
+        <v>86845</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118334</v>
+        <v>117703</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.09145843252003502</v>
+        <v>0.09145843252003501</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07901416938779444</v>
+        <v>0.07787101667967283</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1061061722017569</v>
+        <v>0.1055402107819682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>244</v>
@@ -8457,19 +8457,19 @@
         <v>158004</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>137585</v>
+        <v>139293</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>180726</v>
+        <v>180970</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07613257363237359</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06629404042212465</v>
+        <v>0.06711710074893976</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08708100971819274</v>
+        <v>0.08719843217388377</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>66227</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>51288</v>
+        <v>52310</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>81327</v>
+        <v>81956</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06897645286046732</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05341780203592205</v>
+        <v>0.05448138528709615</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08470386955928057</v>
+        <v>0.08535838157520108</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>194</v>
@@ -8507,19 +8507,19 @@
         <v>120397</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>103810</v>
+        <v>103994</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>140727</v>
+        <v>138756</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1079563144309384</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09308322240650746</v>
+        <v>0.09324825914655296</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1261852982368331</v>
+        <v>0.1244183573215091</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>272</v>
@@ -8528,19 +8528,19 @@
         <v>186624</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>165795</v>
+        <v>165151</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>209645</v>
+        <v>211656</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08992297316087698</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07988659877650135</v>
+        <v>0.07957657239177574</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1010154082543802</v>
+        <v>0.1019842267587425</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>120815</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>102531</v>
+        <v>100635</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>141810</v>
+        <v>142154</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1258306856465112</v>
+        <v>0.1258306856465111</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1067875139285417</v>
+        <v>0.1048128185140543</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1476978315148213</v>
+        <v>0.1480564304289428</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>275</v>
@@ -8578,19 +8578,19 @@
         <v>167999</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>148103</v>
+        <v>148825</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>188524</v>
+        <v>188218</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1506394715812694</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1327992990363638</v>
+        <v>0.1334466475693656</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1690437219457125</v>
+        <v>0.1687684749989709</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>413</v>
@@ -8599,19 +8599,19 @@
         <v>288814</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>259349</v>
+        <v>261739</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>316595</v>
+        <v>317896</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1391621269927419</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.124964560575529</v>
+        <v>0.126116199533477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.152547883980376</v>
+        <v>0.153175004194669</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>687718</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>657378</v>
+        <v>658033</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>716417</v>
+        <v>717530</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.716270896286397</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6846715560650782</v>
+        <v>0.6853530335714314</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7461612543736246</v>
+        <v>0.7473208445099593</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>857</v>
@@ -8649,19 +8649,19 @@
         <v>671139</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>643138</v>
+        <v>645139</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>697817</v>
+        <v>699363</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6017884541103766</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5766807020268012</v>
+        <v>0.5784753190129347</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6257093677116473</v>
+        <v>0.627096183326692</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1444</v>
@@ -8670,19 +8670,19 @@
         <v>1358857</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1317961</v>
+        <v>1317861</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1393757</v>
+        <v>1400483</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6547517245277913</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6350464341608684</v>
+        <v>0.6349981951672972</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6715678395896061</v>
+        <v>0.6748086815785317</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>17622</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10974</v>
+        <v>11004</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28583</v>
+        <v>27698</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01683935277313082</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01048674700409394</v>
+        <v>0.01051488340201226</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02731325353014078</v>
+        <v>0.02646733840502792</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -8795,19 +8795,19 @@
         <v>24973</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17368</v>
+        <v>18234</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32925</v>
+        <v>33291</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02385186392384824</v>
+        <v>0.02385186392384825</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01658874189694521</v>
+        <v>0.01741563022521288</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03144771198410306</v>
+        <v>0.03179674857308514</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -8816,19 +8816,19 @@
         <v>42595</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33550</v>
+        <v>32908</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56178</v>
+        <v>55799</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02034645514179382</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01602629113275809</v>
+        <v>0.0157193999213697</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02683515733124299</v>
+        <v>0.02665405489850042</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>35214</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25393</v>
+        <v>25617</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47669</v>
+        <v>47277</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03365026876683275</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02426538176451668</v>
+        <v>0.02447919031993174</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04555192294817708</v>
+        <v>0.04517746270856673</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -8866,19 +8866,19 @@
         <v>65313</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53985</v>
+        <v>53983</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>78677</v>
+        <v>77573</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06238202790395159</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0515620361574332</v>
+        <v>0.05156079886127016</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0751460881366572</v>
+        <v>0.07409135839846785</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>154</v>
@@ -8887,19 +8887,19 @@
         <v>100527</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>85123</v>
+        <v>85556</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>117481</v>
+        <v>119279</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04801961782880685</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04066111819889654</v>
+        <v>0.04086794771202051</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05611822827860245</v>
+        <v>0.05697685751379752</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>61961</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48395</v>
+        <v>48101</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>79806</v>
+        <v>78452</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05920922739179965</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0462453058831819</v>
+        <v>0.04596479273449698</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07626101433188578</v>
+        <v>0.0749679719757116</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>168</v>
@@ -8937,19 +8937,19 @@
         <v>100268</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>85312</v>
+        <v>85939</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>118146</v>
+        <v>117046</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09576878463614769</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08148304881927754</v>
+        <v>0.08208205390340566</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1128444448252908</v>
+        <v>0.1117929927011886</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>239</v>
@@ -8958,19 +8958,19 @@
         <v>162230</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>142712</v>
+        <v>141028</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>186678</v>
+        <v>184946</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07749342075038076</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06817024882907416</v>
+        <v>0.06736574245026911</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08917164374837797</v>
+        <v>0.08834456354598316</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>123351</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>103520</v>
+        <v>104405</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>143593</v>
+        <v>146055</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.117872473227141</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09892216530875816</v>
+        <v>0.09976808418104376</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1372150204079946</v>
+        <v>0.139568337034024</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>274</v>
@@ -9008,19 +9008,19 @@
         <v>161901</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>143575</v>
+        <v>144436</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>182905</v>
+        <v>182448</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1546357920208112</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1371319963942761</v>
+        <v>0.1379540265747946</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1746973006963465</v>
+        <v>0.1742605320836954</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>414</v>
@@ -9029,19 +9029,19 @@
         <v>285252</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>256101</v>
+        <v>259904</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>313542</v>
+        <v>315760</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.136258571965537</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1223334034861144</v>
+        <v>0.1241500311158507</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1497718696603745</v>
+        <v>0.1508315483835015</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>808330</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>779895</v>
+        <v>779575</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>834800</v>
+        <v>833809</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7724286778410956</v>
+        <v>0.7724286778410957</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.745256490346219</v>
+        <v>0.7449507944184316</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7977229243763562</v>
+        <v>0.7967759549973318</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>919</v>
@@ -9079,19 +9079,19 @@
         <v>694530</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>667361</v>
+        <v>669290</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>719345</v>
+        <v>722259</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6633615315152412</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6374117733677664</v>
+        <v>0.6392544334097306</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6870635499593184</v>
+        <v>0.689846252016556</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1670</v>
@@ -9100,19 +9100,19 @@
         <v>1502860</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1459975</v>
+        <v>1469010</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1540190</v>
+        <v>1538924</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7178819343134815</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6973965429395677</v>
+        <v>0.7017127855729371</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7357134091969949</v>
+        <v>0.7351088299711405</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>12072</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6742</v>
+        <v>6451</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20528</v>
+        <v>20958</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01240299721450296</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006926244311332088</v>
+        <v>0.006627929146227175</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0210896867929245</v>
+        <v>0.02153210222615092</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -9225,19 +9225,19 @@
         <v>18639</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12858</v>
+        <v>13431</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26304</v>
+        <v>26957</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02055981980073674</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01418234301156598</v>
+        <v>0.01481450473232685</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02901384441060663</v>
+        <v>0.02973501840550986</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -9246,19 +9246,19 @@
         <v>30712</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22309</v>
+        <v>22198</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40964</v>
+        <v>42367</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01633657805241163</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01186686783371106</v>
+        <v>0.01180805602685417</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02179021865069745</v>
+        <v>0.02253670178949855</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>42626</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>31750</v>
+        <v>31596</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>58364</v>
+        <v>57145</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.04379324605679418</v>
+        <v>0.04379324605679419</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03261955810618908</v>
+        <v>0.03246080376126338</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05996199806667072</v>
+        <v>0.05870974249892612</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>73</v>
@@ -9296,19 +9296,19 @@
         <v>43116</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34053</v>
+        <v>34381</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>53719</v>
+        <v>54274</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.04755868014422469</v>
+        <v>0.04755868014422468</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03756152277874689</v>
+        <v>0.03792353867178964</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05925417066483815</v>
+        <v>0.05986675096996316</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>121</v>
@@ -9317,19 +9317,19 @@
         <v>85742</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>70977</v>
+        <v>70799</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>103128</v>
+        <v>103755</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04560910501610541</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03775522719313386</v>
+        <v>0.03766060234111858</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05485742986191415</v>
+        <v>0.0551909733409903</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>43110</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>30814</v>
+        <v>32212</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58063</v>
+        <v>58199</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.0442908635651504</v>
+        <v>0.04429086356515039</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03165801371665512</v>
+        <v>0.03309376974409624</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05965347997260666</v>
+        <v>0.05979221303493269</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>99</v>
@@ -9367,19 +9367,19 @@
         <v>65874</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>53112</v>
+        <v>52952</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>82174</v>
+        <v>83160</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.07266163918495996</v>
+        <v>0.07266163918495994</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0585840296221779</v>
+        <v>0.05840797994871516</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09064072710628696</v>
+        <v>0.09172881073573477</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>146</v>
@@ -9388,19 +9388,19 @@
         <v>108984</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>90828</v>
+        <v>91299</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>130249</v>
+        <v>130098</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05797250714080371</v>
+        <v>0.05797250714080372</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04831462115734283</v>
+        <v>0.04856506455623524</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06928379716419142</v>
+        <v>0.06920358236885903</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>115324</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>94556</v>
+        <v>95725</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>139780</v>
+        <v>137648</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1184818832511897</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09714577965821457</v>
+        <v>0.098346820585155</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1436078618270212</v>
+        <v>0.1414173742033552</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>248</v>
@@ -9438,19 +9438,19 @@
         <v>142919</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>125235</v>
+        <v>126246</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>160414</v>
+        <v>159873</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1576453035925365</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1381394788702379</v>
+        <v>0.1392536274248352</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1769425456083649</v>
+        <v>0.176345883538349</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>371</v>
@@ -9459,19 +9459,19 @@
         <v>258243</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>231746</v>
+        <v>231572</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>288513</v>
+        <v>287287</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1373682177488503</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1232736519219509</v>
+        <v>0.1231811854987287</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1534700052875541</v>
+        <v>0.1528174942324037</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>760213</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>731728</v>
+        <v>730358</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>786953</v>
+        <v>783898</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7810310099123627</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7517654083973355</v>
+        <v>0.7503577394665859</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8085028220662878</v>
+        <v>0.8053642418518403</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>868</v>
@@ -9509,19 +9509,19 @@
         <v>636038</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>610731</v>
+        <v>610941</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>658137</v>
+        <v>657954</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7015745572775421</v>
+        <v>0.701574557277542</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6736592903381322</v>
+        <v>0.6738908416993957</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7259500144017078</v>
+        <v>0.7257481477955461</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1582</v>
@@ -9530,19 +9530,19 @@
         <v>1396252</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1357678</v>
+        <v>1359491</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1429972</v>
+        <v>1433592</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.742713592041829</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7221949256292221</v>
+        <v>0.7231590231610032</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7606506304741866</v>
+        <v>0.7625759548683673</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>83844</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>68447</v>
+        <v>66570</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>105248</v>
+        <v>102377</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02410923241340163</v>
+        <v>0.02410923241340164</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01968202708705531</v>
+        <v>0.01914219205357863</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03026391500364585</v>
+        <v>0.0294385619492338</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>283</v>
@@ -9655,19 +9655,19 @@
         <v>158261</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>140206</v>
+        <v>139023</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>178097</v>
+        <v>178069</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.04286138201413547</v>
+        <v>0.04286138201413546</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03797168152731625</v>
+        <v>0.03765125561420182</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04823339950596374</v>
+        <v>0.04822582470260518</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>385</v>
@@ -9676,19 +9676,19 @@
         <v>242105</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>216308</v>
+        <v>217103</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>266408</v>
+        <v>268547</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03376610483423444</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03016825434370978</v>
+        <v>0.03027917143265644</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03715567332882583</v>
+        <v>0.03745403370904599</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>193174</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>166209</v>
+        <v>167383</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>221308</v>
+        <v>219216</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05554709209239665</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04779331746064074</v>
+        <v>0.04813082986368726</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06363688205035581</v>
+        <v>0.06303546152104003</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>495</v>
@@ -9726,19 +9726,19 @@
         <v>299945</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>274184</v>
+        <v>274627</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>330132</v>
+        <v>329109</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08123312314071571</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07425658536353312</v>
+        <v>0.07437637363001641</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.089408644169358</v>
+        <v>0.08913151999394497</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>719</v>
@@ -9747,19 +9747,19 @@
         <v>493119</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>455246</v>
+        <v>454289</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>530925</v>
+        <v>533946</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06877473426209547</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06349272580626607</v>
+        <v>0.06335926793401407</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07404760075449246</v>
+        <v>0.07446890540285862</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>223864</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>199131</v>
+        <v>195870</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>254357</v>
+        <v>250732</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.06437195474635822</v>
+        <v>0.06437195474635823</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05725994493808614</v>
+        <v>0.05632231568458475</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07314033556967237</v>
+        <v>0.07209782101310587</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>557</v>
@@ -9797,19 +9797,19 @@
         <v>346578</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>316069</v>
+        <v>319134</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>376881</v>
+        <v>378064</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09386260752083918</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08559993257003361</v>
+        <v>0.0864301192979765</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1020696939528559</v>
+        <v>0.1023899793481024</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>812</v>
@@ -9818,19 +9818,19 @@
         <v>570442</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>530230</v>
+        <v>532664</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>609757</v>
+        <v>611682</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.07955887877980862</v>
+        <v>0.07955887877980863</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07395054973630301</v>
+        <v>0.07429012931259101</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08504212355010453</v>
+        <v>0.08531062000346733</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>420270</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>382894</v>
+        <v>381961</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>463915</v>
+        <v>458506</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1208483497930651</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1101010662015486</v>
+        <v>0.1098325724928434</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1333984779002764</v>
+        <v>0.1318433026587676</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>939</v>
@@ -9868,19 +9868,19 @@
         <v>567037</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>530900</v>
+        <v>531468</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>605000</v>
+        <v>603824</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1535690200278065</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1437820531723623</v>
+        <v>0.1439359154038004</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1638504615390733</v>
+        <v>0.1635318124927894</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1399</v>
@@ -9889,19 +9889,19 @@
         <v>987307</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>934866</v>
+        <v>933659</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1044103</v>
+        <v>1043686</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1376986493431857</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1303847714430563</v>
+        <v>0.1302164898355577</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1456199799122444</v>
+        <v>0.1455617214999734</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>2556511</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2504820</v>
+        <v>2504585</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2611003</v>
+        <v>2608689</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7351233709547783</v>
+        <v>0.7351233709547784</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7202597934155447</v>
+        <v>0.7201921505065872</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7507927173860668</v>
+        <v>0.7501273402740363</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3026</v>
@@ -9939,19 +9939,19 @@
         <v>2320573</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2273880</v>
+        <v>2265567</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2375185</v>
+        <v>2368074</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.6284738672965032</v>
+        <v>0.6284738672965031</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6158282515683758</v>
+        <v>0.6135770086605054</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6432643283320554</v>
+        <v>0.6413385436165312</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5323</v>
@@ -9960,19 +9960,19 @@
         <v>4877083</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4801640</v>
+        <v>4794258</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4953393</v>
+        <v>4948106</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6802016327806759</v>
+        <v>0.6802016327806758</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6696797226645131</v>
+        <v>0.6686501291618152</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6908445147136437</v>
+        <v>0.6901071815810562</v>
       </c>
     </row>
     <row r="33">
